--- a/program_directory/interpreterAccounting/海螺水泥：2015年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/海螺水泥：2015年年度报告.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="合并现金流量表" sheetId="6" r:id="rId1"/>
     <sheet name="现金流量表补充资料" sheetId="9" r:id="rId2"/>
+    <sheet name="合并所有者权益变动表" sheetId="10" r:id="rId3"/>
+    <sheet name="主营业务分行业经营情况" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="246">
   <si>
     <t>项目</t>
   </si>
@@ -532,6 +534,228 @@
   </si>
   <si>
     <t>-1,299,325,166</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>归属于母公司股东权益</t>
+  </si>
+  <si>
+    <t>少数 股东权益</t>
+  </si>
+  <si>
+    <t>股东权益合计</t>
+  </si>
+  <si>
+    <t>股本</t>
+  </si>
+  <si>
+    <t>资本公积</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>盈余公积</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>一、本年年初余额</t>
+  </si>
+  <si>
+    <t>5,299,302,579</t>
+  </si>
+  <si>
+    <t>10,686,638,402</t>
+  </si>
+  <si>
+    <t>519,247,041</t>
+  </si>
+  <si>
+    <t>2,649,651,290</t>
+  </si>
+  <si>
+    <t>47,061,768,574</t>
+  </si>
+  <si>
+    <t>3,394,633,047</t>
+  </si>
+  <si>
+    <t>69,611,240,933</t>
+  </si>
+  <si>
+    <t>二、本年增减变动金额   (减少以“-”号填列)</t>
+  </si>
+  <si>
+    <t>-2,316,877</t>
+  </si>
+  <si>
+    <t>205,758,595</t>
+  </si>
+  <si>
+    <t>4,071,838,342</t>
+  </si>
+  <si>
+    <t>25,049,715</t>
+  </si>
+  <si>
+    <t>4,300,329,775</t>
+  </si>
+  <si>
+    <t>(一)综合收益总额</t>
+  </si>
+  <si>
+    <t>7,516,385,018</t>
+  </si>
+  <si>
+    <t>115,678,824</t>
+  </si>
+  <si>
+    <t>7,837,822,437</t>
+  </si>
+  <si>
+    <t>(二)股东投入和减少 资本</t>
+  </si>
+  <si>
+    <t>336,131,990</t>
+  </si>
+  <si>
+    <t>333,815,113</t>
+  </si>
+  <si>
+    <t>1. 股东投入的 资本</t>
+  </si>
+  <si>
+    <t>2. 收购子公司 增加的少数股东权益</t>
+  </si>
+  <si>
+    <t>3.购买子公司少数股权</t>
+  </si>
+  <si>
+    <t>七、2</t>
+  </si>
+  <si>
+    <t>-32,430,023</t>
+  </si>
+  <si>
+    <t>-34,746,900</t>
+  </si>
+  <si>
+    <t>(三)利润分配</t>
+  </si>
+  <si>
+    <t>五、38</t>
+  </si>
+  <si>
+    <t>-3,444,546,676</t>
+  </si>
+  <si>
+    <t>-426,761,099</t>
+  </si>
+  <si>
+    <t>-3,871,307,775</t>
+  </si>
+  <si>
+    <t>1. 提取盈余公积</t>
+  </si>
+  <si>
+    <t>2. 对股东的分配</t>
+  </si>
+  <si>
+    <t>3. 非全资子公司 股利</t>
+  </si>
+  <si>
+    <t>三、本年年末余额</t>
+  </si>
+  <si>
+    <t>10,684,321,525</t>
+  </si>
+  <si>
+    <t>725,005,636</t>
+  </si>
+  <si>
+    <t>51,133,606,916</t>
+  </si>
+  <si>
+    <t>3,419,682,762</t>
+  </si>
+  <si>
+    <t>73,911,570,708</t>
+  </si>
+  <si>
+    <t>分产品</t>
+  </si>
+  <si>
+    <t>主营业务</t>
+  </si>
+  <si>
+    <t>毛利率(%)</t>
+  </si>
+  <si>
+    <t>毛利率比上年</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>同期增减</t>
+  </si>
+  <si>
+    <t>（千元）</t>
+  </si>
+  <si>
+    <t>（百分点）</t>
+  </si>
+  <si>
+    <t>42.5级水泥</t>
+  </si>
+  <si>
+    <t>27,772,315</t>
+  </si>
+  <si>
+    <t>20,235,230</t>
+  </si>
+  <si>
+    <t>32.5级水泥</t>
+  </si>
+  <si>
+    <t>16,508,092</t>
+  </si>
+  <si>
+    <t>11,351,321</t>
+  </si>
+  <si>
+    <t>熟料</t>
+  </si>
+  <si>
+    <t>5,190,106</t>
+  </si>
+  <si>
+    <t>4,035,878</t>
+  </si>
+  <si>
+    <t>骨料及石子</t>
+  </si>
+  <si>
+    <t>258,205</t>
+  </si>
+  <si>
+    <t>139,569</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>49,728,718</t>
+  </si>
+  <si>
+    <t>35,761,998</t>
   </si>
 </sst>
 </file>
@@ -539,12 +763,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,7 +793,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,15 +822,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,15 +855,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,13 +870,49 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -652,20 +928,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -673,37 +935,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -711,6 +942,90 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -720,25 +1035,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,25 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +1083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,37 +1101,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,67 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,11 +1139,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,32 +1169,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,177 +1213,182 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1505,7 +1737,7 @@
   <sheetPr/>
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -1520,7 +1752,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2253,4 +2485,595 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="true"/>
+    <col min="2" max="2" width="6.55555555555556" style="1" customWidth="true"/>
+    <col min="3" max="3" width="18.6666666666667" style="1" customWidth="true"/>
+    <col min="4" max="4" width="14" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.3333333333333" style="1" customWidth="true"/>
+    <col min="6" max="6" width="12.8888888888889" style="1" customWidth="true"/>
+    <col min="7" max="7" width="14" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.8888888888889" style="1" customWidth="true"/>
+    <col min="9" max="9" width="14" style="1" customWidth="true"/>
+    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9.66666666666667" style="1" customWidth="true"/>
+    <col min="2" max="3" width="8.88888888888889" style="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="1" customWidth="true"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27.14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-6.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31.24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-5.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="1">
+        <v>22.24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-10.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45.95</v>
+      </c>
+      <c r="E7" s="1">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28.09</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-6.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>